--- a/biology/Zoologie/Encyrtinae/Encyrtinae.xlsx
+++ b/biology/Zoologie/Encyrtinae/Encyrtinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Encyrtinae sont une sous-famille d'insectes hyménoptères apocrites de la famille des Encyrtidae.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille comprend 350 genres et 2 800 espèces.
-Tribu
-Amirini Girault, 1913
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Encyrtinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Encyrtinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tribu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amirini Girault, 1913
 Aphycini Hoffer, 1854
 Bothriothoracini Howard, 1895
 Cerapterocerini Hoffer, 1955
@@ -533,8 +582,43 @@
 Proleurocerini Trjapitzin, 1973
 Protyndarichoidini Hayat, 2004
 Psilophrydini
-Trechnitini Hoffer, 1955
-Aperçu des genres
+Trechnitini Hoffer, 1955</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Encyrtinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Encyrtinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aperçu des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acerophagus Smith 1880
 Achalcerinys Girault 1915
 Adelencyrtoides Tachikawa &amp; Valentine 1969
